--- a/database.xlsx
+++ b/database.xlsx
@@ -718,7 +718,7 @@
       <c r="C14" s="14" t="n">
         <v>43754</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="8" t="inlineStr">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="C15" s="14" t="n">
-        <v>43754</v>
+        <v>43756</v>
       </c>
       <c r="E15" s="8" t="n">
         <v>1</v>
@@ -964,7 +964,12 @@
           <t>Aber das Schiff ist so gewaltig</t>
         </is>
       </c>
-      <c r="C27" s="14" t="n"/>
+      <c r="C27" s="14" t="n">
+        <v>43756</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="G27" s="8" t="inlineStr">
         <is>
           <t>Pero el barco es tan enorme.</t>
@@ -1277,7 +1282,12 @@
           <t>Das ist eine Falle</t>
         </is>
       </c>
-      <c r="C43" s="14" t="n"/>
+      <c r="C43" s="14" t="n">
+        <v>43756</v>
+      </c>
+      <c r="E43" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="G43" s="8" t="inlineStr">
         <is>
           <t>Eso es una trampa</t>
@@ -1295,7 +1305,12 @@
           <t>Er hat dieses Land verlassen</t>
         </is>
       </c>
-      <c r="C44" s="14" t="n"/>
+      <c r="C44" s="14" t="n">
+        <v>43756</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="G44" s="8" t="inlineStr">
         <is>
           <t>Se fue de este pais</t>
@@ -1372,7 +1387,12 @@
           <t>Was tust du das</t>
         </is>
       </c>
-      <c r="C48" s="14" t="n"/>
+      <c r="C48" s="14" t="n">
+        <v>43756</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="G48" s="8" t="inlineStr">
         <is>
           <t>Que estas haciendo</t>
@@ -1390,7 +1410,12 @@
           <t>Oh das könnte interessant werden</t>
         </is>
       </c>
-      <c r="C49" s="14" t="n"/>
+      <c r="C49" s="14" t="n">
+        <v>43756</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="G49" s="8" t="inlineStr">
         <is>
           <t>Ohh, eso podría ser interesante</t>
@@ -1521,7 +1546,12 @@
           <t>Ja, kann ich mir vorstellen</t>
         </is>
       </c>
-      <c r="C56" s="14" t="n"/>
+      <c r="C56" s="14" t="n">
+        <v>43756</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
       <c r="G56" s="8" t="inlineStr">
         <is>
           <t>Si me puedo imaginar</t>
@@ -1581,7 +1611,7 @@
         </is>
       </c>
       <c r="C59" s="14" t="n">
-        <v>43754</v>
+        <v>43756</v>
       </c>
       <c r="E59" s="8" t="n">
         <v>1</v>
@@ -1603,7 +1633,12 @@
           <t>Ja, auf jeden Fall</t>
         </is>
       </c>
-      <c r="C60" s="14" t="n"/>
+      <c r="C60" s="14" t="n">
+        <v>43756</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
       <c r="G60" s="8" t="inlineStr">
         <is>
           <t>Si definitivamente</t>
@@ -1658,9 +1693,9 @@
         </is>
       </c>
       <c r="C63" s="14" t="n">
-        <v>43754</v>
-      </c>
-      <c r="E63" t="n">
+        <v>43756</v>
+      </c>
+      <c r="E63" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G63" s="8" t="inlineStr">
@@ -1683,7 +1718,7 @@
       <c r="C64" s="14" t="n">
         <v>43754</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="8" t="inlineStr">
@@ -1804,7 +1839,7 @@
         </is>
       </c>
       <c r="C70" s="14" t="n">
-        <v>43754</v>
+        <v>43756</v>
       </c>
       <c r="E70" s="8" t="n">
         <v>1</v>
@@ -1827,7 +1862,7 @@
         </is>
       </c>
       <c r="C71" s="14" t="n">
-        <v>43754</v>
+        <v>43756</v>
       </c>
       <c r="E71" s="8" t="n">
         <v>1</v>
@@ -2061,7 +2096,12 @@
           <t>Das Risiko müssen wir eingehen.</t>
         </is>
       </c>
-      <c r="C83" s="14" t="n"/>
+      <c r="C83" s="14" t="n">
+        <v>43756</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
       <c r="G83" s="8" t="inlineStr">
         <is>
           <t>Tenemos que arriesgarnos.</t>
@@ -2146,7 +2186,7 @@
       <c r="C87" s="14" t="n">
         <v>43754</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G87" s="8" t="inlineStr">
@@ -2187,7 +2227,7 @@
       <c r="C89" s="16" t="n">
         <v>43754</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G89" s="8" t="inlineStr">
@@ -2278,9 +2318,9 @@
         </is>
       </c>
       <c r="C94" s="16" t="n">
-        <v>43754</v>
-      </c>
-      <c r="E94" t="n">
+        <v>43756</v>
+      </c>
+      <c r="E94" s="8" t="n">
         <v>2</v>
       </c>
       <c r="G94" s="8" t="inlineStr">

--- a/database.xlsx
+++ b/database.xlsx
@@ -17,9 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="M/D/YYYY;@" numFmtId="164"/>
     <numFmt formatCode="YYYY\-MM\-DD" numFmtId="165"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="166"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -90,7 +91,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -137,6 +138,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -528,7 +530,12 @@
           <t>ich war ziemlich sauer</t>
         </is>
       </c>
-      <c r="C4" s="14" t="n"/>
+      <c r="C4" s="14" t="n">
+        <v>43932</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
           <t>Yo estaba bastante enojado</t>
@@ -654,7 +661,12 @@
           <t>Und immer schön lächeln</t>
         </is>
       </c>
-      <c r="C11" s="14" t="n"/>
+      <c r="C11" s="14" t="n">
+        <v>43932</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
       <c r="G11" s="8" t="inlineStr">
         <is>
           <t>Y siempre sonriendo</t>
@@ -726,7 +738,12 @@
           <t>Aber das mindeste können Sie versuchen</t>
         </is>
       </c>
-      <c r="C15" s="14" t="n"/>
+      <c r="C15" s="14" t="n">
+        <v>43932</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
       <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Pero al menos puedes intentarlo.</t>
@@ -1125,7 +1142,7 @@
       <c r="C37" s="14" t="n">
         <v>43911</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="8" t="n">
         <v>2</v>
       </c>
       <c r="G37" s="8" t="inlineStr">
@@ -1145,7 +1162,12 @@
           <t>Der Geist ist unsichtbar</t>
         </is>
       </c>
-      <c r="C38" s="14" t="n"/>
+      <c r="C38" s="14" t="n">
+        <v>43932</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
       <c r="G38" s="8" t="inlineStr">
         <is>
           <t>La mente es invisible</t>
@@ -1515,7 +1537,12 @@
           <t>Eigentlich ganz gut</t>
         </is>
       </c>
-      <c r="C58" s="14" t="n"/>
+      <c r="C58" s="14" t="n">
+        <v>43932</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
       <c r="G58" s="8" t="inlineStr">
         <is>
           <t>Bastante bien, en realidad</t>
@@ -1644,7 +1671,7 @@
       <c r="C65" s="14" t="n">
         <v>43911</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65" s="8" t="n">
         <v>2</v>
       </c>
       <c r="G65" s="8" t="inlineStr">
@@ -1667,7 +1694,7 @@
       <c r="C66" s="14" t="n">
         <v>43911</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="8" t="inlineStr">
@@ -1885,7 +1912,12 @@
           <t>Das ergibt einfach keinen Sinn,</t>
         </is>
       </c>
-      <c r="C78" s="14" t="n"/>
+      <c r="C78" s="14" t="n">
+        <v>43932</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
       <c r="G78" s="8" t="inlineStr">
         <is>
           <t>Eso simplemente no tiene sentido</t>
@@ -2080,6 +2112,12 @@
         <is>
           <t>Kannst du mir tatsächlich beraten?</t>
         </is>
+      </c>
+      <c r="C89" s="16" t="n">
+        <v>43932</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
       </c>
       <c r="G89" s="8" t="inlineStr">
         <is>

--- a/database.xlsx
+++ b/database.xlsx
@@ -446,7 +446,7 @@
       <selection activeCell="F89" activeCellId="0" pane="topLeft" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="8" width="49.72"/>
     <col customWidth="1" max="2" min="2" style="8" width="7"/>
@@ -533,7 +533,7 @@
       <c r="C4" s="14" t="n">
         <v>43932</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="inlineStr">
@@ -664,7 +664,7 @@
       <c r="C11" s="14" t="n">
         <v>43932</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="8" t="inlineStr">
@@ -741,7 +741,7 @@
       <c r="C15" s="14" t="n">
         <v>43932</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="8" t="inlineStr">
@@ -1067,7 +1067,12 @@
           <t>Die merken uns nicht mal</t>
         </is>
       </c>
-      <c r="C33" s="14" t="n"/>
+      <c r="C33" s="14" t="n">
+        <v>43983</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
       <c r="G33" s="8" t="inlineStr">
         <is>
           <t>Ni siquiera nos notan.</t>
@@ -1165,7 +1170,7 @@
       <c r="C38" s="14" t="n">
         <v>43932</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="8" t="inlineStr">
@@ -1540,7 +1545,7 @@
       <c r="C58" s="14" t="n">
         <v>43932</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="8" t="inlineStr">
@@ -1915,7 +1920,7 @@
       <c r="C78" s="14" t="n">
         <v>43932</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G78" s="8" t="inlineStr">
@@ -2116,7 +2121,7 @@
       <c r="C89" s="16" t="n">
         <v>43932</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G89" s="8" t="inlineStr">
@@ -2236,7 +2241,7 @@
       <selection activeCell="A15" activeCellId="0" pane="topLeft" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="8" width="29.86"/>
     <col customWidth="1" max="2" min="2" style="8" width="11.71"/>
